--- a/data/trans_orig/P14A25-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P14A25-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{ED38231E-8E48-4F96-BB6A-95CEAE244964}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{62C11529-5EF8-4D3A-AA22-DB6051FD61D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{4E44828E-CBD9-4336-9863-A97A5096B488}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{A8A5A390-99D1-48A4-BF39-AE9923DA3658}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="140">
   <si>
     <t>Población que recibe medicación o terapia por otros problemas mentales en 2012 (Tasa respuesta: 0,71%)</t>
   </si>
@@ -129,7 +129,7 @@
     <t>84,23%</t>
   </si>
   <si>
-    <t>39,93%</t>
+    <t>20,24%</t>
   </si>
   <si>
     <t>68,65%</t>
@@ -141,16 +141,16 @@
     <t>76,07%</t>
   </si>
   <si>
-    <t>41,14%</t>
-  </si>
-  <si>
-    <t>93,07%</t>
+    <t>39,23%</t>
+  </si>
+  <si>
+    <t>96,53%</t>
   </si>
   <si>
     <t>15,77%</t>
   </si>
   <si>
-    <t>60,07%</t>
+    <t>79,76%</t>
   </si>
   <si>
     <t>31,35%</t>
@@ -162,10 +162,10 @@
     <t>23,93%</t>
   </si>
   <si>
-    <t>6,93%</t>
-  </si>
-  <si>
-    <t>58,86%</t>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>60,77%</t>
   </si>
   <si>
     <t>45/54</t>
@@ -228,49 +228,49 @@
     <t>94,12%</t>
   </si>
   <si>
-    <t>81,72%</t>
+    <t>79,93%</t>
   </si>
   <si>
     <t>81,22%</t>
   </si>
   <si>
-    <t>61,7%</t>
-  </si>
-  <si>
-    <t>95,26%</t>
+    <t>61,16%</t>
+  </si>
+  <si>
+    <t>95,43%</t>
   </si>
   <si>
     <t>88,92%</t>
   </si>
   <si>
-    <t>76,57%</t>
-  </si>
-  <si>
-    <t>96,28%</t>
+    <t>78,28%</t>
+  </si>
+  <si>
+    <t>96,48%</t>
   </si>
   <si>
     <t>5,88%</t>
   </si>
   <si>
-    <t>18,28%</t>
+    <t>20,07%</t>
   </si>
   <si>
     <t>18,78%</t>
   </si>
   <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>38,3%</t>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>38,84%</t>
   </si>
   <si>
     <t>11,08%</t>
   </si>
   <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>23,43%</t>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>21,72%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -306,7 +306,7 @@
     <t>68,79%</t>
   </si>
   <si>
-    <t>29,59%</t>
+    <t>16,18%</t>
   </si>
   <si>
     <t>35,92%</t>
@@ -318,7 +318,7 @@
     <t>31,21%</t>
   </si>
   <si>
-    <t>70,41%</t>
+    <t>83,82%</t>
   </si>
   <si>
     <t>69,43%</t>
@@ -327,13 +327,13 @@
     <t>67,85%</t>
   </si>
   <si>
-    <t>16,34%</t>
+    <t>31,11%</t>
   </si>
   <si>
     <t>81,56%</t>
   </si>
   <si>
-    <t>52,51%</t>
+    <t>46,61%</t>
   </si>
   <si>
     <t>30,57%</t>
@@ -342,37 +342,37 @@
     <t>32,15%</t>
   </si>
   <si>
-    <t>83,66%</t>
+    <t>68,89%</t>
   </si>
   <si>
     <t>18,44%</t>
   </si>
   <si>
-    <t>47,49%</t>
+    <t>53,39%</t>
   </si>
   <si>
     <t>78,02%</t>
   </si>
   <si>
-    <t>44,51%</t>
+    <t>33,47%</t>
   </si>
   <si>
     <t>86,72%</t>
   </si>
   <si>
-    <t>64,96%</t>
+    <t>59,4%</t>
   </si>
   <si>
     <t>21,98%</t>
   </si>
   <si>
-    <t>55,49%</t>
+    <t>66,53%</t>
   </si>
   <si>
     <t>13,28%</t>
   </si>
   <si>
-    <t>35,04%</t>
+    <t>40,6%</t>
   </si>
   <si>
     <t>73,58%</t>
@@ -414,55 +414,49 @@
     <t>84,06%</t>
   </si>
   <si>
-    <t>66,92%</t>
-  </si>
-  <si>
-    <t>93,8%</t>
+    <t>66,67%</t>
   </si>
   <si>
     <t>87,38%</t>
   </si>
   <si>
-    <t>71,51%</t>
-  </si>
-  <si>
-    <t>96,92%</t>
+    <t>71,72%</t>
+  </si>
+  <si>
+    <t>97,02%</t>
   </si>
   <si>
     <t>85,78%</t>
   </si>
   <si>
-    <t>73,71%</t>
-  </si>
-  <si>
-    <t>92,56%</t>
+    <t>74,38%</t>
+  </si>
+  <si>
+    <t>92,58%</t>
   </si>
   <si>
     <t>15,94%</t>
   </si>
   <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>33,08%</t>
+    <t>33,33%</t>
   </si>
   <si>
     <t>12,62%</t>
   </si>
   <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>28,49%</t>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>28,28%</t>
   </si>
   <si>
     <t>14,22%</t>
   </si>
   <si>
-    <t>7,44%</t>
-  </si>
-  <si>
-    <t>26,29%</t>
+    <t>7,42%</t>
+  </si>
+  <si>
+    <t>25,62%</t>
   </si>
 </sst>
 </file>
@@ -874,7 +868,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1179610-D0E4-41EA-8BEB-D6699D3D0F68}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13522AB6-A71B-4CD6-8516-83B39052C02B}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2081,7 +2075,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CDA0459-2E4C-47D7-B6BE-A775E7B5C9E5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D4242C6-2118-4AC0-8E78-A73806DCF319}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3141,7 +3135,7 @@
         <v>125</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="H22" s="7">
         <v>25</v>
@@ -3150,13 +3144,13 @@
         <v>29496</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>128</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>129</v>
       </c>
       <c r="M22" s="7">
         <v>51</v>
@@ -3165,13 +3159,13 @@
         <v>56001</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>131</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3186,13 +3180,13 @@
         <v>5026</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>135</v>
       </c>
       <c r="H23" s="7">
         <v>4</v>
@@ -3201,13 +3195,13 @@
         <v>4260</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>138</v>
       </c>
       <c r="M23" s="7">
         <v>9</v>
@@ -3216,13 +3210,13 @@
         <v>9286</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P14A25-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P14A25-Edad-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{62C11529-5EF8-4D3A-AA22-DB6051FD61D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E339C4F8-AC95-4B11-8C94-D8F9710847DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{A8A5A390-99D1-48A4-BF39-AE9923DA3658}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{00911A84-57AE-4F13-B8B9-ED24831DC8C8}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="142">
   <si>
     <t>Población que recibe medicación o terapia por otros problemas mentales en 2012 (Tasa respuesta: 0,71%)</t>
   </si>
@@ -129,7 +129,7 @@
     <t>84,23%</t>
   </si>
   <si>
-    <t>20,24%</t>
+    <t>40,12%</t>
   </si>
   <si>
     <t>68,65%</t>
@@ -141,16 +141,16 @@
     <t>76,07%</t>
   </si>
   <si>
-    <t>39,23%</t>
-  </si>
-  <si>
-    <t>96,53%</t>
+    <t>38,57%</t>
+  </si>
+  <si>
+    <t>93,55%</t>
   </si>
   <si>
     <t>15,77%</t>
   </si>
   <si>
-    <t>79,76%</t>
+    <t>59,88%</t>
   </si>
   <si>
     <t>31,35%</t>
@@ -162,10 +162,10 @@
     <t>23,93%</t>
   </si>
   <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>60,77%</t>
+    <t>6,45%</t>
+  </si>
+  <si>
+    <t>61,43%</t>
   </si>
   <si>
     <t>45/54</t>
@@ -204,79 +204,79 @@
     <t>91,18%</t>
   </si>
   <si>
-    <t>59,16%</t>
+    <t>45,51%</t>
   </si>
   <si>
     <t>93,94%</t>
   </si>
   <si>
-    <t>72,61%</t>
+    <t>73,92%</t>
   </si>
   <si>
     <t>8,82%</t>
   </si>
   <si>
-    <t>40,84%</t>
+    <t>54,49%</t>
   </si>
   <si>
     <t>6,06%</t>
   </si>
   <si>
-    <t>27,39%</t>
+    <t>26,08%</t>
   </si>
   <si>
     <t>94,12%</t>
   </si>
   <si>
-    <t>79,93%</t>
+    <t>81,51%</t>
   </si>
   <si>
     <t>81,22%</t>
   </si>
   <si>
-    <t>61,16%</t>
-  </si>
-  <si>
-    <t>95,43%</t>
+    <t>57,07%</t>
+  </si>
+  <si>
+    <t>95,23%</t>
   </si>
   <si>
     <t>88,92%</t>
   </si>
   <si>
-    <t>78,28%</t>
-  </si>
-  <si>
-    <t>96,48%</t>
+    <t>76,64%</t>
+  </si>
+  <si>
+    <t>94,9%</t>
   </si>
   <si>
     <t>5,88%</t>
   </si>
   <si>
-    <t>20,07%</t>
+    <t>18,49%</t>
   </si>
   <si>
     <t>18,78%</t>
   </si>
   <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>38,84%</t>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>42,93%</t>
   </si>
   <si>
     <t>11,08%</t>
   </si>
   <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>21,72%</t>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>23,36%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
   </si>
   <si>
-    <t>Población que recibe medicación o terapia por otros problemas mentales en 2015 (Tasa respuesta: 0,91%)</t>
+    <t>Población que recibe medicación o terapia por otros problemas mentales en 2016 (Tasa respuesta: 0,91%)</t>
   </si>
   <si>
     <t>60,01%</t>
@@ -306,7 +306,7 @@
     <t>68,79%</t>
   </si>
   <si>
-    <t>16,18%</t>
+    <t>22,22%</t>
   </si>
   <si>
     <t>35,92%</t>
@@ -318,7 +318,7 @@
     <t>31,21%</t>
   </si>
   <si>
-    <t>83,82%</t>
+    <t>77,78%</t>
   </si>
   <si>
     <t>69,43%</t>
@@ -327,13 +327,13 @@
     <t>67,85%</t>
   </si>
   <si>
-    <t>31,11%</t>
+    <t>31,29%</t>
   </si>
   <si>
     <t>81,56%</t>
   </si>
   <si>
-    <t>46,61%</t>
+    <t>52,46%</t>
   </si>
   <si>
     <t>30,57%</t>
@@ -342,37 +342,37 @@
     <t>32,15%</t>
   </si>
   <si>
-    <t>68,89%</t>
+    <t>68,71%</t>
   </si>
   <si>
     <t>18,44%</t>
   </si>
   <si>
-    <t>53,39%</t>
+    <t>47,54%</t>
   </si>
   <si>
     <t>78,02%</t>
   </si>
   <si>
-    <t>33,47%</t>
+    <t>44,5%</t>
   </si>
   <si>
     <t>86,72%</t>
   </si>
   <si>
-    <t>59,4%</t>
+    <t>57,61%</t>
   </si>
   <si>
     <t>21,98%</t>
   </si>
   <si>
-    <t>66,53%</t>
+    <t>55,5%</t>
   </si>
   <si>
     <t>13,28%</t>
   </si>
   <si>
-    <t>40,6%</t>
+    <t>42,39%</t>
   </si>
   <si>
     <t>73,58%</t>
@@ -387,13 +387,13 @@
     <t>91,43%</t>
   </si>
   <si>
-    <t>62,18%</t>
+    <t>62,58%</t>
   </si>
   <si>
     <t>93,98%</t>
   </si>
   <si>
-    <t>75,45%</t>
+    <t>73,29%</t>
   </si>
   <si>
     <t>23,25%</t>
@@ -402,61 +402,67 @@
     <t>8,57%</t>
   </si>
   <si>
-    <t>37,82%</t>
+    <t>37,42%</t>
   </si>
   <si>
     <t>6,02%</t>
   </si>
   <si>
-    <t>24,55%</t>
+    <t>26,71%</t>
   </si>
   <si>
     <t>84,06%</t>
   </si>
   <si>
-    <t>66,67%</t>
+    <t>67,75%</t>
+  </si>
+  <si>
+    <t>93,84%</t>
   </si>
   <si>
     <t>87,38%</t>
   </si>
   <si>
-    <t>71,72%</t>
-  </si>
-  <si>
-    <t>97,02%</t>
+    <t>71,1%</t>
+  </si>
+  <si>
+    <t>96,83%</t>
   </si>
   <si>
     <t>85,78%</t>
   </si>
   <si>
-    <t>74,38%</t>
-  </si>
-  <si>
-    <t>92,58%</t>
+    <t>75,26%</t>
+  </si>
+  <si>
+    <t>93,54%</t>
   </si>
   <si>
     <t>15,94%</t>
   </si>
   <si>
-    <t>33,33%</t>
+    <t>6,16%</t>
+  </si>
+  <si>
+    <t>32,25%</t>
   </si>
   <si>
     <t>12,62%</t>
   </si>
   <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>28,28%</t>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>28,9%</t>
   </si>
   <si>
     <t>14,22%</t>
   </si>
   <si>
-    <t>7,42%</t>
-  </si>
-  <si>
-    <t>25,62%</t>
+    <t>6,46%</t>
+  </si>
+  <si>
+    <t>24,74%</t>
   </si>
 </sst>
 </file>
@@ -868,7 +874,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13522AB6-A71B-4CD6-8516-83B39052C02B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D1CB6C0-FE47-4506-AF43-B88FAAB931EC}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2075,7 +2081,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D4242C6-2118-4AC0-8E78-A73806DCF319}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67557AF0-BE59-4791-B032-38A26197AC8B}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3135,7 +3141,7 @@
         <v>125</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="H22" s="7">
         <v>25</v>
@@ -3144,13 +3150,13 @@
         <v>29496</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="M22" s="7">
         <v>51</v>
@@ -3159,13 +3165,13 @@
         <v>56001</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3180,13 +3186,13 @@
         <v>5026</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>122</v>
+        <v>134</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="H23" s="7">
         <v>4</v>
@@ -3195,13 +3201,13 @@
         <v>4260</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="M23" s="7">
         <v>9</v>
@@ -3210,13 +3216,13 @@
         <v>9286</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
